--- a/Statystyki_2018/Template/okrd.xlsx
+++ b/Statystyki_2018/Template/okrd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev-Klon-wap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F586139-CF45-4E80-BFD9-D07FE9692709}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9839B66C-3372-4B8D-B2A7-35A62A5825C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9768" windowHeight="3840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,91 +349,91 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -822,159 +822,160 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD46"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
-    <col min="2" max="1025" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51.44140625" customWidth="1"/>
+    <col min="3" max="1025" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="38.85" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="9">
+      <c r="E1" s="25"/>
+      <c r="F1" s="3">
         <v>20</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="2" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="11"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" ht="96.6">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.8">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="8">
         <v>2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="8">
         <v>3</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="8">
         <v>4</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="9">
         <v>5</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="9">
         <v>6</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="9">
         <v>7</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="9">
         <v>8</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="10">
         <v>9</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="19">
         <v>10</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="12">
         <v>11</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="20">
         <v>12</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="21">
         <v>13</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="15">
         <v>14</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="22">
         <v>15</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="17">
         <v>16</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="23">
         <v>17</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="9">
         <v>18</v>
       </c>
     </row>

--- a/Statystyki_2018/Template/okrd.xlsx
+++ b/Statystyki_2018/Template/okrd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9839B66C-3372-4B8D-B2A7-35A62A5825C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEA311B-36B4-4EFE-8A4E-4B8CFE442634}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t>luty 2014r.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>POCZTA</t>
   </si>
@@ -822,7 +819,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -836,9 +833,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="25" t="s">
-        <v>0</v>
-      </c>
+      <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="3">
         <v>20</v>
@@ -847,79 +842,79 @@
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
       <c r="J1" s="27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1" s="27"/>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
       <c r="N1" s="4"/>
       <c r="O1" s="29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P1" s="29"/>
       <c r="Q1" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R1" s="24"/>
       <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" ht="96.6">
       <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="R2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="17" t="s">
+      <c r="S2" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.8">

--- a/Statystyki_2018/Template/okrd.xlsx
+++ b/Statystyki_2018/Template/okrd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEA311B-36B4-4EFE-8A4E-4B8CFE442634}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E48EEEC-238D-450E-9307-61600133A584}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,13 +819,13 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="51.44140625" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
     <col min="3" max="1025" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -835,9 +835,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
-      <c r="F1" s="3">
-        <v>20</v>
-      </c>
+      <c r="F1" s="3"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
@@ -860,10 +858,10 @@
     </row>
     <row r="2" spans="1:19" ht="96.6">
       <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>5</v>
@@ -918,7 +916,9 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.8">
-      <c r="A3" s="9"/>
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
       <c r="B3" s="9">
         <v>1</v>
       </c>
